--- a/src/test/resources/prod.xlsx
+++ b/src/test/resources/prod.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aaydemir\IdeaProjects\GratisProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cazorte\IdeaProjects\GratisProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2FBC93-2B83-45F4-B454-C175171541F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0AC76F-7E45-4021-BBDD-3DFFE7CC1329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="525" windowWidth="12885" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Organic Shop Granola &amp; Macadamia Vücut Scrubı 360 ml</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,14 +345,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>